--- a/INPUT/DREUMEX.xlsx
+++ b/INPUT/DREUMEX.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects2\MDD\INPUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4778C832-EC8B-45D1-B6F8-2C8994EB5FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B470FF-F046-4057-BDA1-2ABB3C5ED76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="4104" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CROSS" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="385">
   <si>
     <t>OE 1</t>
   </si>
@@ -602,36 +603,9 @@
     <t>Distributeur automatique à utiliser avec différents produits Dreumex. Le distributeur de savon industriel est hygiénique, pratique et, surtout, plus économique.</t>
   </si>
   <si>
-    <t>Plus01</t>
-  </si>
-  <si>
-    <t>Plus03</t>
-  </si>
-  <si>
-    <t>Spécial04</t>
-  </si>
-  <si>
-    <t>Plus02</t>
-  </si>
-  <si>
-    <t>Spécial01</t>
-  </si>
-  <si>
-    <t>Spécial02</t>
-  </si>
-  <si>
-    <t>Spécial03</t>
-  </si>
-  <si>
-    <t>Classic01</t>
-  </si>
-  <si>
     <t>Soft01</t>
   </si>
   <si>
-    <t>D10001</t>
-  </si>
-  <si>
     <t>W&amp;C01</t>
   </si>
   <si>
@@ -644,21 +618,6 @@
     <t>Sensitive01</t>
   </si>
   <si>
-    <t>Citrus01</t>
-  </si>
-  <si>
-    <t>EX400001</t>
-  </si>
-  <si>
-    <t>O2C01</t>
-  </si>
-  <si>
-    <t>O2C02</t>
-  </si>
-  <si>
-    <t>DREUMEXlogo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conditionnement </t>
   </si>
   <si>
@@ -675,6 +634,561 @@
   </si>
   <si>
     <t xml:space="preserve">Application </t>
+  </si>
+  <si>
+    <t>artno</t>
+  </si>
+  <si>
+    <t>brandno</t>
+  </si>
+  <si>
+    <t>PU0011</t>
+  </si>
+  <si>
+    <t>99999051029</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>99999061036</t>
+  </si>
+  <si>
+    <t>99999091040</t>
+  </si>
+  <si>
+    <t>99999101001</t>
+  </si>
+  <si>
+    <t>99999101003</t>
+  </si>
+  <si>
+    <t>30016</t>
+  </si>
+  <si>
+    <t>99900001020</t>
+  </si>
+  <si>
+    <t>99900001024</t>
+  </si>
+  <si>
+    <t>99900001026</t>
+  </si>
+  <si>
+    <t>99900001027</t>
+  </si>
+  <si>
+    <t>99900001030</t>
+  </si>
+  <si>
+    <t>99900001033</t>
+  </si>
+  <si>
+    <t>99900001034</t>
+  </si>
+  <si>
+    <t>99900001035</t>
+  </si>
+  <si>
+    <t>99900001036</t>
+  </si>
+  <si>
+    <t>99990401009</t>
+  </si>
+  <si>
+    <t>99999011010</t>
+  </si>
+  <si>
+    <t>99999011011</t>
+  </si>
+  <si>
+    <t>99999041022</t>
+  </si>
+  <si>
+    <t>99999041043</t>
+  </si>
+  <si>
+    <t>99999051024</t>
+  </si>
+  <si>
+    <t>99999051025</t>
+  </si>
+  <si>
+    <t>99999051028</t>
+  </si>
+  <si>
+    <t>24240</t>
+  </si>
+  <si>
+    <t>10106001004</t>
+  </si>
+  <si>
+    <t>10128001012</t>
+  </si>
+  <si>
+    <t>10142001026</t>
+  </si>
+  <si>
+    <t>10142001040</t>
+  </si>
+  <si>
+    <t>10142001054</t>
+  </si>
+  <si>
+    <t>10190151057</t>
+  </si>
+  <si>
+    <t>10190601061</t>
+  </si>
+  <si>
+    <t>10305001001</t>
+  </si>
+  <si>
+    <t>10328001001</t>
+  </si>
+  <si>
+    <t>10330001001</t>
+  </si>
+  <si>
+    <t>10340001002</t>
+  </si>
+  <si>
+    <t>10405001001</t>
+  </si>
+  <si>
+    <t>10405001002</t>
+  </si>
+  <si>
+    <t>10406001007</t>
+  </si>
+  <si>
+    <t>10427001001</t>
+  </si>
+  <si>
+    <t>10428001012</t>
+  </si>
+  <si>
+    <t>10430001024</t>
+  </si>
+  <si>
+    <t>10440001001</t>
+  </si>
+  <si>
+    <t>10442001033</t>
+  </si>
+  <si>
+    <t>10442001061</t>
+  </si>
+  <si>
+    <t>10450001067</t>
+  </si>
+  <si>
+    <t>10490151069</t>
+  </si>
+  <si>
+    <t>10490301074</t>
+  </si>
+  <si>
+    <t>10490601075</t>
+  </si>
+  <si>
+    <t>10505001001</t>
+  </si>
+  <si>
+    <t>10505001003</t>
+  </si>
+  <si>
+    <t>10505001004</t>
+  </si>
+  <si>
+    <t>10505001005</t>
+  </si>
+  <si>
+    <t>10527001008</t>
+  </si>
+  <si>
+    <t>10527001009</t>
+  </si>
+  <si>
+    <t>10528001017</t>
+  </si>
+  <si>
+    <t>10702501002</t>
+  </si>
+  <si>
+    <t>10710001004</t>
+  </si>
+  <si>
+    <t>10710001005</t>
+  </si>
+  <si>
+    <t>10730001007</t>
+  </si>
+  <si>
+    <t>10740001008</t>
+  </si>
+  <si>
+    <t>10906001001</t>
+  </si>
+  <si>
+    <t>10928001008</t>
+  </si>
+  <si>
+    <t>10942001012</t>
+  </si>
+  <si>
+    <t>10950001046</t>
+  </si>
+  <si>
+    <t>10990151052</t>
+  </si>
+  <si>
+    <t>10990301057</t>
+  </si>
+  <si>
+    <t>10990601059</t>
+  </si>
+  <si>
+    <t>11006001001</t>
+  </si>
+  <si>
+    <t>11045001005</t>
+  </si>
+  <si>
+    <t>11242001002</t>
+  </si>
+  <si>
+    <t>11301001008</t>
+  </si>
+  <si>
+    <t>11610001002</t>
+  </si>
+  <si>
+    <t>11610001003</t>
+  </si>
+  <si>
+    <t>11630001004</t>
+  </si>
+  <si>
+    <t>11630001005</t>
+  </si>
+  <si>
+    <t>11699071009</t>
+  </si>
+  <si>
+    <t>11750001001</t>
+  </si>
+  <si>
+    <t>11790301003</t>
+  </si>
+  <si>
+    <t>11802501004</t>
+  </si>
+  <si>
+    <t>11815001008</t>
+  </si>
+  <si>
+    <t>11902501004</t>
+  </si>
+  <si>
+    <t>11915001009</t>
+  </si>
+  <si>
+    <t>12050001001</t>
+  </si>
+  <si>
+    <t>12090301003</t>
+  </si>
+  <si>
+    <t>12092001004</t>
+  </si>
+  <si>
+    <t>12250001001</t>
+  </si>
+  <si>
+    <t>12290301003</t>
+  </si>
+  <si>
+    <t>12350001001</t>
+  </si>
+  <si>
+    <t>12390301002</t>
+  </si>
+  <si>
+    <t>12450001001</t>
+  </si>
+  <si>
+    <t>12490301003</t>
+  </si>
+  <si>
+    <t>12492001004</t>
+  </si>
+  <si>
+    <t>12499991005</t>
+  </si>
+  <si>
+    <t>12550001001</t>
+  </si>
+  <si>
+    <t>20430001001</t>
+  </si>
+  <si>
+    <t>20600901001</t>
+  </si>
+  <si>
+    <t>24001</t>
+  </si>
+  <si>
+    <t>24015</t>
+  </si>
+  <si>
+    <t>24210001001</t>
+  </si>
+  <si>
+    <t>24230001001</t>
+  </si>
+  <si>
+    <t>24230001002</t>
+  </si>
+  <si>
+    <t>24237</t>
+  </si>
+  <si>
+    <t>26321</t>
+  </si>
+  <si>
+    <t>26322</t>
+  </si>
+  <si>
+    <t>27014</t>
+  </si>
+  <si>
+    <t>28047</t>
+  </si>
+  <si>
+    <t>31008</t>
+  </si>
+  <si>
+    <t>31052</t>
+  </si>
+  <si>
+    <t>41004</t>
+  </si>
+  <si>
+    <t>41006</t>
+  </si>
+  <si>
+    <t>51100</t>
+  </si>
+  <si>
+    <t>51901501001</t>
+  </si>
+  <si>
+    <t>51901501002</t>
+  </si>
+  <si>
+    <t>51904001001</t>
+  </si>
+  <si>
+    <t>52030</t>
+  </si>
+  <si>
+    <t>52032</t>
+  </si>
+  <si>
+    <t>52035</t>
+  </si>
+  <si>
+    <t>53537</t>
+  </si>
+  <si>
+    <t>59000901002</t>
+  </si>
+  <si>
+    <t>59000901007</t>
+  </si>
+  <si>
+    <t>59001301001</t>
+  </si>
+  <si>
+    <t>59001301002</t>
+  </si>
+  <si>
+    <t>59001301006</t>
+  </si>
+  <si>
+    <t>60503</t>
+  </si>
+  <si>
+    <t>60550</t>
+  </si>
+  <si>
+    <t>60551</t>
+  </si>
+  <si>
+    <t>66700801001</t>
+  </si>
+  <si>
+    <t>66700801002</t>
+  </si>
+  <si>
+    <t>66708001001</t>
+  </si>
+  <si>
+    <t>66708001002</t>
+  </si>
+  <si>
+    <t>68101301001</t>
+  </si>
+  <si>
+    <t>73001</t>
+  </si>
+  <si>
+    <t>74700801001</t>
+  </si>
+  <si>
+    <t>74701001001</t>
+  </si>
+  <si>
+    <t>74701701001</t>
+  </si>
+  <si>
+    <t>74703501001</t>
+  </si>
+  <si>
+    <t>74707001001</t>
+  </si>
+  <si>
+    <t>74708001001</t>
+  </si>
+  <si>
+    <t>74708001002</t>
+  </si>
+  <si>
+    <t>76102501001</t>
+  </si>
+  <si>
+    <t>76102501002</t>
+  </si>
+  <si>
+    <t>76115001001</t>
+  </si>
+  <si>
+    <t>90250001001</t>
+  </si>
+  <si>
+    <t>90337801002</t>
+  </si>
+  <si>
+    <t>90650001001</t>
+  </si>
+  <si>
+    <t>90690251002</t>
+  </si>
+  <si>
+    <t>90690601003</t>
+  </si>
+  <si>
+    <t>90692001004</t>
+  </si>
+  <si>
+    <t>90692001005</t>
+  </si>
+  <si>
+    <t>90890201001</t>
+  </si>
+  <si>
+    <t>90890301001</t>
+  </si>
+  <si>
+    <t>91004001001</t>
+  </si>
+  <si>
+    <t>91204001001</t>
+  </si>
+  <si>
+    <t>91304001001</t>
+  </si>
+  <si>
+    <t>99900001002</t>
+  </si>
+  <si>
+    <t>99900001003</t>
+  </si>
+  <si>
+    <t>99900001004</t>
+  </si>
+  <si>
+    <t>99900001007</t>
+  </si>
+  <si>
+    <t>99900001008</t>
+  </si>
+  <si>
+    <t>99999101004</t>
+  </si>
+  <si>
+    <t>99999101005</t>
+  </si>
+  <si>
+    <t>99999101021</t>
+  </si>
+  <si>
+    <t>99999101023</t>
+  </si>
+  <si>
+    <t>99999101024</t>
+  </si>
+  <si>
+    <t>99999101025</t>
+  </si>
+  <si>
+    <t>99999101026</t>
+  </si>
+  <si>
+    <t>99999101027</t>
+  </si>
+  <si>
+    <t>DREUMEX.JPG</t>
+  </si>
+  <si>
+    <t>Plus01.png</t>
+  </si>
+  <si>
+    <t>Plus02.png</t>
+  </si>
+  <si>
+    <t>Plus03.png</t>
+  </si>
+  <si>
+    <t>Spécial01.png</t>
+  </si>
+  <si>
+    <t>Spécial02.png</t>
+  </si>
+  <si>
+    <t>Spécial03.png</t>
+  </si>
+  <si>
+    <t>Spécial04.png</t>
+  </si>
+  <si>
+    <t>Classic01.png</t>
+  </si>
+  <si>
+    <t>D10001.png</t>
+  </si>
+  <si>
+    <t>Citrus01.png</t>
+  </si>
+  <si>
+    <t>EX400001.png</t>
+  </si>
+  <si>
+    <t>O2C01.png</t>
+  </si>
+  <si>
+    <t>O2C02.png</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1769,7 @@
     <xf numFmtId="0" fontId="22" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1314,6 +1828,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="20 % - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1640,129 +2155,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="46.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7265625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="21" style="22" customWidth="1"/>
-    <col min="16" max="17" width="18.7109375" style="22" customWidth="1"/>
-    <col min="18" max="19" width="25.7109375" style="23" customWidth="1"/>
+    <col min="16" max="17" width="18.7265625" style="22" customWidth="1"/>
+    <col min="18" max="19" width="25.7265625" style="23" customWidth="1"/>
     <col min="20" max="20" width="20" style="23" customWidth="1"/>
-    <col min="21" max="21" width="46.140625" style="23" customWidth="1"/>
+    <col min="21" max="21" width="46.1796875" style="23" customWidth="1"/>
     <col min="22" max="23" width="47" style="23" customWidth="1"/>
-    <col min="24" max="24" width="76.7109375" style="23" customWidth="1"/>
-    <col min="25" max="25" width="29.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="10.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="48" max="48" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="51" max="51" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="57" max="57" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="63" max="63" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="66" max="66" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="70" max="70" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="71" max="71" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="72" max="72" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="77" max="77" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="78" max="78" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="80" max="80" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="81" max="81" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="83" max="83" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="86" max="86" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="89" max="89" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="92" max="92" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="94" max="94" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="95" max="95" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="96" max="96" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="98" max="98" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="101" max="101" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="104" max="104" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="105" max="105" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="107" max="107" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="108" max="108" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="110" max="110" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="111" max="111" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="113" max="113" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="114" max="114" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="116" max="116" width="8.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="117" max="16384" width="14.7109375" style="1"/>
+    <col min="24" max="24" width="76.7265625" style="23" customWidth="1"/>
+    <col min="25" max="25" width="29.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="7.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="10.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="7.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="7.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="10.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="51" max="51" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="60" max="60" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="63" max="63" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="70" max="70" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="71" max="71" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="72" max="72" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="73" max="73" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="95" max="95" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="96" max="96" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="98" max="98" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="101" max="101" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="104" max="104" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="105" max="105" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="106" max="106" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="107" max="107" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="108" max="108" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="109" max="109" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="110" max="110" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="111" max="111" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="112" max="112" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="113" max="113" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="114" max="114" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="116" max="116" width="8.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="117" max="16384" width="14.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -1821,7 +2336,7 @@
         <v>12</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="U1" s="21" t="s">
         <v>13</v>
@@ -2112,7 +2627,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:116" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>10142001026</v>
       </c>
@@ -2123,7 +2638,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E2" s="1">
         <v>10142001026</v>
@@ -2135,26 +2650,26 @@
         <v>114</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>189</v>
+        <v>372</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
       <c r="O2" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P2" s="22" t="s">
         <v>147</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>156</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T2" s="23" t="s">
         <v>157</v>
@@ -2166,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X2" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:116" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>10330001001</v>
       </c>
@@ -2183,7 +2698,7 @@
         <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E3" s="1">
         <v>10330001001</v>
@@ -2195,26 +2710,26 @@
         <v>115</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>192</v>
+        <v>373</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P3" s="22" t="s">
         <v>148</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R3" s="23" t="s">
         <v>156</v>
       </c>
       <c r="S3" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T3" s="23" t="s">
         <v>157</v>
@@ -2226,13 +2741,13 @@
         <v>159</v>
       </c>
       <c r="W3" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X3" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:116" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>10340001002</v>
       </c>
@@ -2243,7 +2758,7 @@
         <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E4" s="1">
         <v>10340001002</v>
@@ -2255,7 +2770,7 @@
         <v>116</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -2264,19 +2779,19 @@
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P4" s="22" t="s">
         <v>148</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>156</v>
       </c>
       <c r="S4" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>157</v>
@@ -2288,13 +2803,13 @@
         <v>159</v>
       </c>
       <c r="W4" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X4" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:116" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>10428001012</v>
       </c>
@@ -2305,7 +2820,7 @@
         <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E5" s="1">
         <v>10428001012</v>
@@ -2317,7 +2832,7 @@
         <v>118</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>193</v>
+        <v>375</v>
       </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
@@ -2326,19 +2841,19 @@
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R5" s="23" t="s">
         <v>161</v>
       </c>
       <c r="S5" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T5" s="23" t="s">
         <v>162</v>
@@ -2353,7 +2868,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:116" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10430001024</v>
       </c>
@@ -2364,7 +2879,7 @@
         <v>113</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E6" s="1">
         <v>10430001024</v>
@@ -2376,7 +2891,7 @@
         <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -2385,19 +2900,19 @@
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P6" s="22" t="s">
         <v>148</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R6" s="23" t="s">
         <v>161</v>
       </c>
       <c r="S6" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T6" s="23" t="s">
         <v>162</v>
@@ -2412,7 +2927,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:116" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>10440001001</v>
       </c>
@@ -2423,7 +2938,7 @@
         <v>113</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E7" s="1">
         <v>10440001001</v>
@@ -2435,7 +2950,7 @@
         <v>119</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>195</v>
+        <v>377</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -2444,19 +2959,19 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P7" s="22" t="s">
         <v>148</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R7" s="23" t="s">
         <v>161</v>
       </c>
       <c r="S7" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T7" s="23" t="s">
         <v>162</v>
@@ -2471,7 +2986,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:116" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:116" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>10442001033</v>
       </c>
@@ -2482,7 +2997,7 @@
         <v>113</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E8" s="1">
         <v>10442001033</v>
@@ -2494,7 +3009,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>191</v>
+        <v>378</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
@@ -2503,19 +3018,19 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P8" s="22" t="s">
         <v>147</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R8" s="23" t="s">
         <v>161</v>
       </c>
       <c r="S8" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T8" s="23" t="s">
         <v>162</v>
@@ -2530,7 +3045,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:116" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:116" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>10942001012</v>
       </c>
@@ -2541,7 +3056,7 @@
         <v>113</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E9" s="1">
         <v>10942001012</v>
@@ -2553,7 +3068,7 @@
         <v>121</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>196</v>
+        <v>379</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -2562,19 +3077,19 @@
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
       <c r="O9" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P9" s="22" t="s">
         <v>147</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R9" s="23" t="s">
         <v>156</v>
       </c>
       <c r="S9" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T9" s="23" t="s">
         <v>166</v>
@@ -2586,7 +3101,7 @@
         <v>158</v>
       </c>
       <c r="W9" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X9" s="23" t="s">
         <v>167</v>
@@ -2595,7 +3110,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:116" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:116" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>11301001008</v>
       </c>
@@ -2606,7 +3121,7 @@
         <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E10" s="1">
         <v>11301001008</v>
@@ -2618,24 +3133,24 @@
         <v>122</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>198</v>
+        <v>380</v>
       </c>
       <c r="K10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P10" s="22" t="s">
         <v>150</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R10" s="23" t="s">
         <v>169</v>
       </c>
       <c r="S10" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T10" s="23" t="s">
         <v>170</v>
@@ -2647,7 +3162,7 @@
         <v>171</v>
       </c>
       <c r="W10" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X10" s="23" t="s">
         <v>172</v>
@@ -2656,7 +3171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11630001004</v>
       </c>
@@ -2667,7 +3182,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E11" s="1">
         <v>11630001004</v>
@@ -2679,24 +3194,24 @@
         <v>123</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P11" s="22" t="s">
         <v>148</v>
       </c>
       <c r="Q11" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="S11" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:116" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11902501004</v>
       </c>
@@ -2707,7 +3222,7 @@
         <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E12" s="1">
         <v>11902501004</v>
@@ -2719,24 +3234,24 @@
         <v>124</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="K12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P12" s="22" t="s">
         <v>151</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:116" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12550001001</v>
       </c>
@@ -2747,7 +3262,7 @@
         <v>113</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E13" s="1">
         <v>12550001001</v>
@@ -2759,24 +3274,24 @@
         <v>125</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="K13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P13" s="22" t="s">
         <v>152</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:116" ht="60" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:116" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>20600901001</v>
       </c>
@@ -2787,7 +3302,7 @@
         <v>113</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E14" s="1">
         <v>20600901001</v>
@@ -2799,24 +3314,24 @@
         <v>126</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P14" s="22" t="s">
         <v>151</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R14" s="23" t="s">
         <v>174</v>
       </c>
       <c r="S14" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T14" s="23" t="s">
         <v>175</v>
@@ -2825,10 +3340,10 @@
         <v>107</v>
       </c>
       <c r="V14" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:116" ht="60" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:116" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>24230001001</v>
       </c>
@@ -2839,7 +3354,7 @@
         <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E15" s="1">
         <v>24230001001</v>
@@ -2851,24 +3366,24 @@
         <v>127</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P15" s="22" t="s">
         <v>153</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R15" s="23" t="s">
         <v>176</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T15" s="23" t="s">
         <v>177</v>
@@ -2880,7 +3395,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:116" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:116" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>90337801002</v>
       </c>
@@ -2891,7 +3406,7 @@
         <v>113</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E16" s="1">
         <v>90337801002</v>
@@ -2903,24 +3418,24 @@
         <v>128</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>203</v>
+        <v>381</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P16" s="22" t="s">
         <v>149</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>99900001003</v>
       </c>
@@ -2931,7 +3446,7 @@
         <v>113</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E17" s="1">
         <v>99900001003</v>
@@ -2943,24 +3458,24 @@
         <v>129</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P17" s="22" t="s">
         <v>154</v>
       </c>
       <c r="Q17" s="22" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="R17" s="23" t="s">
         <v>183</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T17" s="23" t="s">
         <v>179</v>
@@ -2972,7 +3487,7 @@
         <v>180</v>
       </c>
       <c r="W17" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X17" s="23" t="s">
         <v>181</v>
@@ -2981,7 +3496,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>99999041043</v>
       </c>
@@ -2992,7 +3507,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E18" s="1">
         <v>99999041043</v>
@@ -3004,16 +3519,16 @@
         <v>130</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P18" s="22" t="s">
         <v>155</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>99999051024</v>
       </c>
@@ -3024,7 +3539,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E19" s="1">
         <v>99999051024</v>
@@ -3036,10 +3551,10 @@
         <v>131</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
       <c r="O19" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P19" s="22" t="s">
         <v>154</v>
@@ -3051,7 +3566,7 @@
         <v>184</v>
       </c>
       <c r="S19" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T19" s="23" t="s">
         <v>179</v>
@@ -3063,13 +3578,13 @@
         <v>187</v>
       </c>
       <c r="W19" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X19" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>99999051025</v>
       </c>
@@ -3080,7 +3595,7 @@
         <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E20" s="1">
         <v>99999051025</v>
@@ -3092,10 +3607,10 @@
         <v>132</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>206</v>
+        <v>384</v>
       </c>
       <c r="O20" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P20" s="22" t="s">
         <v>154</v>
@@ -3107,7 +3622,7 @@
         <v>185</v>
       </c>
       <c r="S20" s="23" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="T20" s="23" t="s">
         <v>179</v>
@@ -3119,13 +3634,13 @@
         <v>186</v>
       </c>
       <c r="W20" s="23" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="X20" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>134</v>
       </c>
@@ -3136,7 +3651,7 @@
         <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>207</v>
+        <v>371</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>134</v>
@@ -3148,7 +3663,7 @@
         <v>133</v>
       </c>
       <c r="O21" s="22" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="P21" s="22" t="s">
         <v>155</v>
@@ -3157,30 +3672,30 @@
         <v>165</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="I31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="I32" s="2"/>
       <c r="L32" s="2"/>
     </row>
-    <row r="55" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -3188,7 +3703,7 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -3196,31 +3711,31 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="61" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K62" s="3"/>
       <c r="N62" s="3"/>
     </row>
-    <row r="65" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K65" s="4"/>
       <c r="N65" s="4"/>
     </row>
-    <row r="66" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K66" s="4"/>
       <c r="N66" s="4"/>
     </row>
-    <row r="67" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K68" s="4"/>
       <c r="N68" s="4"/>
     </row>
-    <row r="71" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
@@ -3228,7 +3743,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
     </row>
-    <row r="72" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
@@ -3236,255 +3751,255 @@
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="79" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K79" s="6"/>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K80" s="6"/>
       <c r="N80" s="6"/>
     </row>
-    <row r="82" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
     </row>
-    <row r="84" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J89" s="8"/>
       <c r="M89" s="8"/>
     </row>
-    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J90" s="8"/>
       <c r="M90" s="8"/>
     </row>
-    <row r="91" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J91" s="8"/>
       <c r="M91" s="8"/>
     </row>
-    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J92" s="8"/>
       <c r="M92" s="8"/>
     </row>
-    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J96" s="8"/>
       <c r="M96" s="8"/>
     </row>
-    <row r="97" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J97" s="8"/>
       <c r="M97" s="8"/>
     </row>
-    <row r="98" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:14" x14ac:dyDescent="0.35">
       <c r="J98" s="8"/>
       <c r="M98" s="8"/>
     </row>
-    <row r="99" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="10:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:14" x14ac:dyDescent="0.35">
       <c r="K104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="117" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I117" s="3"/>
       <c r="K117" s="2"/>
       <c r="L117" s="3"/>
       <c r="N117" s="2"/>
     </row>
-    <row r="118" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I118" s="3"/>
       <c r="K118" s="2"/>
       <c r="L118" s="3"/>
       <c r="N118" s="2"/>
     </row>
-    <row r="129" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K129" s="2"/>
       <c r="N129" s="2"/>
     </row>
-    <row r="130" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K130" s="2"/>
       <c r="N130" s="2"/>
     </row>
-    <row r="133" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I133" s="3"/>
       <c r="K133" s="2"/>
       <c r="L133" s="3"/>
       <c r="N133" s="2"/>
     </row>
-    <row r="134" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I134" s="3"/>
       <c r="K134" s="2"/>
       <c r="L134" s="3"/>
       <c r="N134" s="2"/>
     </row>
-    <row r="135" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K135" s="2"/>
       <c r="N135" s="2"/>
     </row>
-    <row r="136" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K136" s="2"/>
       <c r="N136" s="2"/>
     </row>
-    <row r="137" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K137" s="2"/>
       <c r="N137" s="2"/>
     </row>
-    <row r="138" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K138" s="2"/>
       <c r="N138" s="2"/>
     </row>
-    <row r="139" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K139" s="2"/>
       <c r="N139" s="2"/>
     </row>
-    <row r="140" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K140" s="2"/>
       <c r="N140" s="2"/>
     </row>
-    <row r="149" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I149" s="3"/>
       <c r="K149" s="2"/>
       <c r="L149" s="3"/>
       <c r="N149" s="2"/>
     </row>
-    <row r="165" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I165" s="3"/>
       <c r="K165" s="2"/>
       <c r="L165" s="3"/>
       <c r="N165" s="2"/>
     </row>
-    <row r="166" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I166" s="3"/>
       <c r="K166" s="2"/>
       <c r="L166" s="3"/>
       <c r="N166" s="2"/>
     </row>
-    <row r="177" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I177" s="3"/>
       <c r="K177" s="2"/>
       <c r="L177" s="3"/>
       <c r="N177" s="2"/>
     </row>
-    <row r="178" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I178" s="3"/>
       <c r="K178" s="2"/>
       <c r="L178" s="3"/>
       <c r="N178" s="2"/>
     </row>
-    <row r="183" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K183" s="2"/>
       <c r="N183" s="2"/>
     </row>
-    <row r="184" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K184" s="2"/>
       <c r="N184" s="2"/>
     </row>
-    <row r="187" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K187" s="2"/>
       <c r="N187" s="2"/>
     </row>
-    <row r="188" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K188" s="2"/>
       <c r="N188" s="2"/>
     </row>
-    <row r="225" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="225" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K225" s="2"/>
       <c r="N225" s="2"/>
     </row>
-    <row r="243" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K243" s="2"/>
       <c r="N243" s="2"/>
     </row>
-    <row r="244" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K244" s="2"/>
       <c r="N244" s="2"/>
     </row>
-    <row r="247" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="247" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K247" s="2"/>
       <c r="N247" s="2"/>
     </row>
-    <row r="248" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="248" spans="9:14" x14ac:dyDescent="0.35">
       <c r="K248" s="2"/>
       <c r="N248" s="2"/>
     </row>
-    <row r="253" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I253" s="3"/>
       <c r="K253" s="2"/>
       <c r="L253" s="3"/>
       <c r="N253" s="2"/>
     </row>
-    <row r="254" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="254" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I254" s="3"/>
       <c r="K254" s="2"/>
       <c r="L254" s="3"/>
       <c r="N254" s="2"/>
     </row>
-    <row r="267" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K267" s="2"/>
       <c r="N267" s="2"/>
     </row>
-    <row r="268" spans="11:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="11:14" x14ac:dyDescent="0.35">
       <c r="K268" s="2"/>
       <c r="N268" s="2"/>
     </row>
-    <row r="276" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="276" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I276" s="3"/>
       <c r="K276" s="2"/>
       <c r="L276" s="3"/>
       <c r="N276" s="2"/>
     </row>
-    <row r="277" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="277" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I277" s="3"/>
       <c r="K277" s="2"/>
       <c r="L277" s="3"/>
       <c r="N277" s="2"/>
     </row>
-    <row r="278" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="278" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I278" s="3"/>
       <c r="K278" s="2"/>
       <c r="L278" s="3"/>
       <c r="N278" s="2"/>
     </row>
-    <row r="279" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="279" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I279" s="3"/>
       <c r="K279" s="2"/>
       <c r="L279" s="3"/>
       <c r="N279" s="2"/>
     </row>
-    <row r="280" spans="9:14" x14ac:dyDescent="0.25">
+    <row r="280" spans="9:14" x14ac:dyDescent="0.35">
       <c r="I280" s="3"/>
       <c r="K280" s="2"/>
       <c r="L280" s="3"/>
       <c r="N280" s="2"/>
     </row>
-    <row r="290" spans="9:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="9:12" x14ac:dyDescent="0.35">
       <c r="I290" s="3"/>
       <c r="L290" s="3"/>
     </row>
@@ -3493,4 +4008,1463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF08C668-18E1-4DED-8729-E5624DD0CD2B}">
+  <dimension ref="A1:B180"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.90625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B116" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B117" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="B119" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="B121" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B122" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="B125" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B126" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B128" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B131" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B134" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B140" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="B143" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B144" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B147" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B148" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B151" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B153" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B155" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B156" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B157" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B158" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="B161" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B162" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B163" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B164" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B165" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B166" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B167" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B170" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B171" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B173" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B175" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B176" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B178" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B179" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B180" s="24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>